--- a/Planilhas/Populaçao IDADE NACIONAL.xlsx
+++ b/Planilhas/Populaçao IDADE NACIONAL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,8 +486,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>43472</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43472</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -519,8 +521,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>43323</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43323</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -552,8 +556,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>43173</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43173</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -585,8 +591,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>43030</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43030</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -618,8 +626,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>42887</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42887</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -651,8 +661,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>42751</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42751</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -684,8 +696,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>42623</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42623</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -717,8 +731,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>42509</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42509</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -750,8 +766,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>42395</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42395</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -783,8 +801,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>42288</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42288</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -816,8 +836,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>42189</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42189</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -849,8 +871,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>42104</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42104</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -882,8 +906,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>42020</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42020</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -915,8 +941,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>41940</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41940</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -948,8 +976,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>41866</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41866</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -981,8 +1011,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>41802</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41802</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1014,8 +1046,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>41738</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41738</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1047,8 +1081,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>41678</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41678</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1080,8 +1116,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>41618</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41618</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1113,8 +1151,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>41562</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>41562</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1146,8 +1186,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>41506</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41506</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1179,8 +1221,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>41455</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>41455</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1212,8 +1256,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>41408</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>41408</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1245,8 +1291,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>41370</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>41370</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1278,8 +1326,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>41332</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41332</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1311,8 +1361,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>41298</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>41298</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1344,8 +1396,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>41260</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>41260</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1377,8 +1431,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>41222</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>41222</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1410,8 +1466,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>41183</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>41183</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1443,8 +1501,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>41148</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>41148</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1476,8 +1536,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>41113</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>41113</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1509,8 +1571,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>41080</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>41080</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1542,8 +1606,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>41048</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>41048</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1575,8 +1641,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>41017</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>41017</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1608,8 +1676,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>40992</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>40992</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1641,8 +1711,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>40974</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>40974</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1674,8 +1746,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>40956</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>40956</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1707,8 +1781,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>40940</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>40940</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1740,8 +1816,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>40922</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>40922</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1773,8 +1851,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>40905</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>40905</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1806,8 +1886,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>40888</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>40888</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1839,8 +1921,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>40872</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>40872</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1872,8 +1956,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>40854</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>40854</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1905,8 +1991,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>40836</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>40836</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1938,8 +2026,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>40817</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>40817</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1971,8 +2061,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>40801</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>40801</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2004,8 +2096,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>40785</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>40785</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2037,8 +2131,10 @@
           <t>0 a 13 anos</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>40771</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>40771</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2070,8 +2166,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>14221</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14221</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2103,8 +2201,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>14216</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14216</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2136,8 +2236,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>14136</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14136</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2169,8 +2271,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>14079</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14079</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2202,8 +2306,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>14041</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14041</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2235,8 +2341,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>13988</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13988</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2268,8 +2376,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>13948</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13948</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2301,8 +2411,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>13912</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13912</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2334,8 +2446,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>13936</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13936</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2367,8 +2481,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>13900</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13900</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2400,8 +2516,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>13965</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>13965</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2433,8 +2551,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>13972</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13972</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2466,8 +2586,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>13882</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13882</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2499,8 +2621,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>13856</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13856</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2532,8 +2656,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>13851</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>13851</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2565,8 +2691,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>13716</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>13716</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2598,8 +2726,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>13677</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13677</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2631,8 +2761,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>13638</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13638</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2664,8 +2796,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>13545</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>13545</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2697,8 +2831,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>13489</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13489</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2730,8 +2866,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>13380</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13380</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2763,8 +2901,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>13225</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>13225</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2796,8 +2936,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>13107</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>13107</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2829,8 +2971,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>12963</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12963</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2862,8 +3006,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>12861</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12861</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2895,8 +3041,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>12775</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12775</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2928,8 +3076,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>12642</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12642</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2961,8 +3111,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>12565</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12565</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2994,8 +3146,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>12488</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12488</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3027,8 +3181,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>12463</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12463</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3060,8 +3216,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>12497</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12497</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3093,8 +3251,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>12441</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>12441</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3126,8 +3286,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>12414</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12414</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3159,8 +3321,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>12430</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12430</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3192,8 +3356,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>12435</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>12435</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3225,8 +3391,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>12557</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12557</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3258,8 +3426,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>12450</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12450</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3291,8 +3461,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>12252</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12252</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3324,8 +3496,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>12201</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>12201</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3357,8 +3531,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>12162</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>12162</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3390,8 +3566,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>12147</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>12147</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3423,8 +3601,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>12130</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>12130</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3456,8 +3636,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>12142</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>12142</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3489,8 +3671,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>12150</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12150</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3522,8 +3706,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>12140</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12140</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3555,8 +3741,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>12100</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>12100</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3588,8 +3776,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>12034</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>12034</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3621,8 +3811,10 @@
           <t>14 a 17 anos</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>11957</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>11957</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3654,8 +3846,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>23804</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>23804</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3687,8 +3881,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>23804</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>23804</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3720,8 +3916,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>23873</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>23873</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3753,8 +3951,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>23914</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>23914</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3786,8 +3986,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>23936</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>23936</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3819,8 +4021,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>23975</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>23975</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3852,8 +4056,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>23991</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>23991</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3885,8 +4091,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>23993</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>23993</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3918,8 +4126,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>23935</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>23935</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3951,8 +4161,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>23941</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>23941</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3984,8 +4196,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>23835</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>23835</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4017,8 +4231,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>23780</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>23780</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4050,8 +4266,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>23822</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>23822</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4083,8 +4301,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>23804</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>23804</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4116,8 +4336,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>23749</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>23749</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4149,8 +4371,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>23814</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>23814</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4182,8 +4406,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>23780</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>23780</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4215,8 +4441,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>23751</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>23751</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4248,8 +4476,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>23771</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>23771</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4281,8 +4511,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>23751</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>23751</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4314,8 +4546,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>23784</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>23784</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4347,8 +4581,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>23868</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>23868</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4380,8 +4616,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>23906</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>23906</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4413,8 +4651,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>23967</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>23967</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4446,8 +4686,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>23986</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>23986</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4479,8 +4721,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>23993</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>23993</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4512,8 +4756,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>24040</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>24040</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4545,8 +4791,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>24028</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>24028</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4578,8 +4826,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>24017</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>24017</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4611,8 +4861,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>23958</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>23958</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4644,8 +4896,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>23827</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>23827</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4677,8 +4931,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>23779</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>23779</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4710,8 +4966,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>23701</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>23701</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4743,8 +5001,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>23584</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>23584</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4776,8 +5036,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>23462</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>23462</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4809,8 +5071,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>23211</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>23211</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4842,8 +5106,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>23187</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>23187</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4875,8 +5141,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>23262</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>23262</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4908,8 +5176,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>23176</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>23176</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4941,8 +5211,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>23073</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>23073</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4974,8 +5246,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>22945</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>22945</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5007,8 +5281,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>22827</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>22827</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5040,8 +5316,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>22671</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>22671</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5073,8 +5351,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>22517</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>22517</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5106,8 +5386,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>22381</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>22381</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5139,8 +5421,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>22280</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>22280</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5172,8 +5456,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>22201</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>22201</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5205,8 +5491,10 @@
           <t>18 a 24 anos</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>22136</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>22136</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5238,8 +5526,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>48316</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>48316</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5271,8 +5561,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>48481</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>48481</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5304,8 +5596,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>48642</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>48642</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5337,8 +5631,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>48797</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>48797</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5370,8 +5666,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>48953</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>48953</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5403,8 +5701,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>49107</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>49107</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5436,8 +5736,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>49252</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>49252</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5469,8 +5771,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>49386</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>49386</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5502,8 +5806,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>49520</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>49520</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5535,8 +5841,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>49653</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>49653</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5568,8 +5876,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>49773</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>49773</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5601,8 +5911,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>49879</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>49879</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5634,8 +5946,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>49984</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>49984</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5667,8 +5981,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>50090</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>50090</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5700,8 +6016,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D160" t="n">
-        <v>50186</v>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>50186</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5733,8 +6051,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>50271</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>50271</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5766,8 +6086,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>50356</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>50356</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5799,8 +6121,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>50441</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>50441</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5832,8 +6156,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>50513</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>50513</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5865,8 +6191,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D165" t="n">
-        <v>50574</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>50574</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5898,8 +6226,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>50634</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>50634</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5931,8 +6261,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>50695</v>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>50695</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5964,8 +6296,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>50744</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>50744</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5997,8 +6331,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>50780</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>50780</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6030,8 +6366,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>50816</v>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>50816</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6063,8 +6401,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D171" t="n">
-        <v>50854</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>50854</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6096,8 +6436,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D172" t="n">
-        <v>50885</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>50885</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6129,8 +6471,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D173" t="n">
-        <v>50910</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>50910</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6162,8 +6506,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>50935</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>50935</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6195,8 +6541,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>50961</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>50961</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6228,8 +6576,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>50983</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>50983</t>
+        </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6261,8 +6611,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>51003</v>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>51003</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6294,8 +6646,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>51022</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>51022</t>
+        </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6327,8 +6681,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D179" t="n">
-        <v>51043</v>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>51043</t>
+        </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6360,8 +6716,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D180" t="n">
-        <v>51058</v>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>51058</t>
+        </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6393,8 +6751,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D181" t="n">
-        <v>51071</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>51071</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6426,8 +6786,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D182" t="n">
-        <v>51083</v>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>51083</t>
+        </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6459,8 +6821,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D183" t="n">
-        <v>51098</v>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>51098</t>
+        </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6492,8 +6856,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D184" t="n">
-        <v>51107</v>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>51107</t>
+        </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6525,8 +6891,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D185" t="n">
-        <v>51114</v>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>51114</t>
+        </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6558,8 +6926,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D186" t="n">
-        <v>51121</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>51121</t>
+        </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6591,8 +6961,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D187" t="n">
-        <v>51129</v>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>51129</t>
+        </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6624,8 +6996,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D188" t="n">
-        <v>51131</v>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>51131</t>
+        </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6657,8 +7031,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>51128</v>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>51128</t>
+        </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -6690,8 +7066,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D190" t="n">
-        <v>51125</v>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>51125</t>
+        </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6723,8 +7101,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D191" t="n">
-        <v>51124</v>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>51124</t>
+        </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6756,8 +7136,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D192" t="n">
-        <v>51113</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>51113</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6789,8 +7171,10 @@
           <t>25 a 39 anos</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>51095</v>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>51095</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6822,8 +7206,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D194" t="n">
-        <v>45210</v>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>45210</t>
+        </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -6855,8 +7241,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D195" t="n">
-        <v>45434</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>45434</t>
+        </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6888,8 +7276,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D196" t="n">
-        <v>45658</v>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>45658</t>
+        </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -6921,8 +7311,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>45880</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>45880</t>
+        </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -6954,8 +7346,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>46102</v>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>46102</t>
+        </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -6987,8 +7381,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>46321</v>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>46321</t>
+        </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7020,8 +7416,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>46543</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>46543</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7053,8 +7451,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D201" t="n">
-        <v>46765</v>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>46765</t>
+        </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -7086,8 +7486,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D202" t="n">
-        <v>46987</v>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>46987</t>
+        </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -7119,8 +7521,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D203" t="n">
-        <v>47205</v>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>47205</t>
+        </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -7152,8 +7556,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>47428</v>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>47428</t>
+        </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -7185,8 +7591,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D205" t="n">
-        <v>47653</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>47653</t>
+        </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -7218,8 +7626,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D206" t="n">
-        <v>47878</v>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>47878</t>
+        </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -7251,8 +7661,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>48099</v>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>48099</t>
+        </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -7284,8 +7696,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D208" t="n">
-        <v>48327</v>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>48327</t>
+        </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -7317,8 +7731,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D209" t="n">
-        <v>48561</v>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>48561</t>
+        </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -7350,8 +7766,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>48794</v>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>48794</t>
+        </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -7383,8 +7801,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>49024</v>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>49024</t>
+        </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -7416,8 +7836,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D212" t="n">
-        <v>49260</v>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>49260</t>
+        </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -7449,8 +7871,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D213" t="n">
-        <v>49499</v>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>49499</t>
+        </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -7482,8 +7906,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D214" t="n">
-        <v>49738</v>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>49738</t>
+        </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -7515,8 +7941,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D215" t="n">
-        <v>49972</v>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>49972</t>
+        </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -7548,8 +7976,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D216" t="n">
-        <v>50211</v>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>50211</t>
+        </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -7581,8 +8011,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D217" t="n">
-        <v>50450</v>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>50450</t>
+        </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -7614,8 +8046,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D218" t="n">
-        <v>50689</v>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>50689</t>
+        </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -7647,8 +8081,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D219" t="n">
-        <v>50923</v>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>50923</t>
+        </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -7680,8 +8116,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D220" t="n">
-        <v>51163</v>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>51163</t>
+        </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -7713,8 +8151,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>51404</v>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>51404</t>
+        </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -7746,8 +8186,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D222" t="n">
-        <v>51644</v>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>51644</t>
+        </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -7779,8 +8221,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D223" t="n">
-        <v>51879</v>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>51879</t>
+        </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -7812,8 +8256,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D224" t="n">
-        <v>52120</v>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>52120</t>
+        </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -7845,8 +8291,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D225" t="n">
-        <v>52360</v>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>52360</t>
+        </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -7878,8 +8326,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D226" t="n">
-        <v>52600</v>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>52600</t>
+        </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -7911,8 +8361,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>52837</v>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>52837</t>
+        </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -7944,8 +8396,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D228" t="n">
-        <v>53076</v>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>53076</t>
+        </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -7977,8 +8431,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D229" t="n">
-        <v>53317</v>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>53317</t>
+        </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -8010,8 +8466,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D230" t="n">
-        <v>53557</v>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>53557</t>
+        </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -8043,8 +8501,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D231" t="n">
-        <v>53791</v>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>53791</t>
+        </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -8076,8 +8536,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D232" t="n">
-        <v>54031</v>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>54031</t>
+        </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -8109,8 +8571,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D233" t="n">
-        <v>54270</v>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>54270</t>
+        </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -8142,8 +8606,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>54509</v>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>54509</t>
+        </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -8175,8 +8641,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D235" t="n">
-        <v>54743</v>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>54743</t>
+        </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -8208,8 +8676,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D236" t="n">
-        <v>54980</v>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>54980</t>
+        </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -8241,8 +8711,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D237" t="n">
-        <v>55217</v>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>55217</t>
+        </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -8274,8 +8746,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D238" t="n">
-        <v>55452</v>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>55452</t>
+        </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -8307,8 +8781,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D239" t="n">
-        <v>55682</v>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>55682</t>
+        </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -8340,8 +8816,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D240" t="n">
-        <v>55914</v>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>55914</t>
+        </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -8373,8 +8851,10 @@
           <t>40 a 59 anos</t>
         </is>
       </c>
-      <c r="D241" t="n">
-        <v>56143</v>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>56143</t>
+        </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -8406,8 +8886,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D242" t="n">
-        <v>22050</v>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>22050</t>
+        </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -8439,8 +8921,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>22245</v>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>22245</t>
+        </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -8472,8 +8956,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>22450</v>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>22450</t>
+        </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -8505,8 +8991,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D245" t="n">
-        <v>22660</v>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>22660</t>
+        </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -8538,8 +9026,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D246" t="n">
-        <v>22870</v>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>22870</t>
+        </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -8571,8 +9061,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D247" t="n">
-        <v>23075</v>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>23075</t>
+        </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -8604,8 +9096,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D248" t="n">
-        <v>23289</v>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>23289</t>
+        </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -8637,8 +9131,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D249" t="n">
-        <v>23509</v>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>23509</t>
+        </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -8670,8 +9166,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D250" t="n">
-        <v>23729</v>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>23729</t>
+        </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -8703,8 +9201,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D251" t="n">
-        <v>23943</v>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>23943</t>
+        </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -8736,8 +9236,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D252" t="n">
-        <v>24166</v>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>24166</t>
+        </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -8769,8 +9271,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D253" t="n">
-        <v>24395</v>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>24395</t>
+        </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -8802,8 +9306,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>24623</v>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>24623</t>
+        </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -8835,8 +9341,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D255" t="n">
-        <v>24845</v>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>24845</t>
+        </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -8868,8 +9376,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D256" t="n">
-        <v>25079</v>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>25079</t>
+        </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -8901,8 +9411,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D257" t="n">
-        <v>25319</v>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>25319</t>
+        </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -8934,8 +9446,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D258" t="n">
-        <v>25558</v>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>25558</t>
+        </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -8967,8 +9481,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D259" t="n">
-        <v>25794</v>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>25794</t>
+        </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -9000,8 +9516,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>26039</v>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>26039</t>
+        </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -9033,8 +9551,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>26290</v>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>26290</t>
+        </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -9066,8 +9586,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D262" t="n">
-        <v>26541</v>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>26541</t>
+        </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -9099,8 +9621,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D263" t="n">
-        <v>26785</v>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>26785</t>
+        </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -9132,8 +9656,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D264" t="n">
-        <v>27040</v>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>27040</t>
+        </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -9165,8 +9691,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D265" t="n">
-        <v>27299</v>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>27299</t>
+        </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -9198,8 +9726,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D266" t="n">
-        <v>27557</v>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>27557</t>
+        </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -9231,8 +9761,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D267" t="n">
-        <v>27808</v>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>27808</t>
+        </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -9264,8 +9796,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D268" t="n">
-        <v>28071</v>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>28071</t>
+        </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -9297,8 +9831,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D269" t="n">
-        <v>28339</v>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>28339</t>
+        </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -9330,8 +9866,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D270" t="n">
-        <v>28606</v>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>28606</t>
+        </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -9363,8 +9901,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D271" t="n">
-        <v>28867</v>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>28867</t>
+        </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -9396,8 +9936,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D272" t="n">
-        <v>29138</v>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>29138</t>
+        </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -9429,8 +9971,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D273" t="n">
-        <v>29413</v>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>29413</t>
+        </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -9462,8 +10006,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D274" t="n">
-        <v>29689</v>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>29689</t>
+        </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -9495,8 +10041,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D275" t="n">
-        <v>29959</v>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>29959</t>
+        </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -9528,8 +10076,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D276" t="n">
-        <v>30239</v>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>30239</t>
+        </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -9561,8 +10111,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D277" t="n">
-        <v>30523</v>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>30523</t>
+        </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -9594,8 +10146,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D278" t="n">
-        <v>30807</v>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>30807</t>
+        </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -9627,8 +10181,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D279" t="n">
-        <v>31083</v>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>31083</t>
+        </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -9660,8 +10216,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D280" t="n">
-        <v>31371</v>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>31371</t>
+        </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -9693,8 +10251,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D281" t="n">
-        <v>31664</v>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>31664</t>
+        </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -9726,8 +10286,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D282" t="n">
-        <v>31955</v>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>31955</t>
+        </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -9759,8 +10321,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D283" t="n">
-        <v>32239</v>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>32239</t>
+        </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -9792,8 +10356,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D284" t="n">
-        <v>32534</v>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>32534</t>
+        </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -9825,8 +10391,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D285" t="n">
-        <v>32833</v>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>32833</t>
+        </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -9858,8 +10426,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D286" t="n">
-        <v>33131</v>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>33131</t>
+        </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -9891,8 +10461,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D287" t="n">
-        <v>33420</v>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>33420</t>
+        </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -9924,8 +10496,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D288" t="n">
-        <v>33720</v>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>33720</t>
+        </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -9957,8 +10531,10 @@
           <t>60 anos ou mais</t>
         </is>
       </c>
-      <c r="D289" t="n">
-        <v>34021</v>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>34021</t>
+        </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
